--- a/media/xlsx/corretivafora.xlsx
+++ b/media/xlsx/corretivafora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CIES-11387</t>
+          <t>CIES-11815</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prioridade 2</t>
+          <t>Prioridade 3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CÂMERAS DO P0167 ESTÃO OFFLINE</t>
+          <t>CÂMERAS DO P0214 OBSTRUIDAS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>P0167-PK-VLS-DOR</t>
+          <t>P0214-PK-VLS-JAG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CIES-11388</t>
+          <t>CIES-11821</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,22 +520,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TODAS AS CAMÊRAS DO SITE ESTÃO OFFLINE - P0207</t>
+          <t>todas as câmeras do p0173 estão off-line</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P0207-PK-VLS-IBA</t>
+          <t>P0173-PK-VLS-IBA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FORA DO PRAZO</t>
+          <t>NO PRAZO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -547,7 +547,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CIES-11389</t>
+          <t>CIES-11823</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,22 +557,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TODAS AS CAMÊRAS DO SITE ESTÃO OFFLINE - P0220</t>
+          <t>todas as câmeras do p0271 estão off-line</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>P0220-PK-VLS-IUN</t>
+          <t>P0271-PCL-PK-ARA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FORA DO PRAZO</t>
+          <t>NO PRAZO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CIES-11390</t>
+          <t>CIES-11825</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -594,22 +594,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TODAS AS CAMÊRAS DO SITE ESTÃO OFFLINE - P0225</t>
+          <t>todas as câmeras do p0271 estão off-line</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>P0225-PK-VLS-ITG</t>
+          <t>P0259-PCL-PK-COL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FORA DO PRAZO</t>
+          <t>NO PRAZO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CIES-11699</t>
+          <t>CIES-11827</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0259 estão off-line </t>
+          <t>Todas as câmeras do p0234 estão off-line</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>P0259-PCL-PK-COL</t>
+          <t>P0234-PK-VLS-PED</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CIES-11712</t>
+          <t>CIES-11828</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TODAS AS CÂMERAS DO SITE ESTÃO OFFLINE - P0264</t>
+          <t>Todas as câmeras do p0243 estão off-line</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>P0264-PCL-PK-ARA</t>
+          <t>P0243-PK-VLS-NOV</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -695,7 +695,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CIES-11739</t>
+          <t>CIES-11829</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,17 +705,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P0239 - Site sem acesso externo</t>
+          <t>Todas as câmeras do p0229 estão off-line</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>P0239-PK-VLS-ATI</t>
+          <t>P0229-PK-VLS-VPA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -732,17 +732,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CIES-11741</t>
+          <t>CIES-11834</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Prioridade 3</t>
+          <t>Prioridade 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">câmeras do p0214 com galhos a frente. </t>
+          <t xml:space="preserve">todas as câmeras do p0249 estão off-line  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -752,12 +752,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P0214-PK-VLS-JAG</t>
+          <t>P0249-PK-VLS-STE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FORA DO PRAZO</t>
+          <t>NO PRAZO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -769,7 +769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CIES-11772</t>
+          <t>CIES-11835</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P0249 - Site off</t>
+          <t xml:space="preserve">câmeras do p0293 estão off-line </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P0249-PK-VLS-STE</t>
+          <t>P0293-PK-VLS-CAC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -806,7 +806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CIES-11775</t>
+          <t>CIES-12146</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P0259 - Site</t>
+          <t>Corretiva P0174</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>P0259-PCL-PK-COL</t>
+          <t>P0174-PK-VLS-LIN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -843,17 +843,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CIES-11777</t>
+          <t>CIES-12149</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Prioridade 1</t>
+          <t>Prioridade 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0184 estão off-line    </t>
+          <t xml:space="preserve"> câmeras do p0272 estão off-line  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P0184-PK-VLS-GUA</t>
+          <t>P0272-PCL-PK-ALF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CIES-11778</t>
+          <t>CIES-12151</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -890,17 +890,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0183 estão off-line    </t>
+          <t>P0281 - Site Offline</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>P0183-PK-VLS-JOA</t>
+          <t>P0281-PCL-PK-PAN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -917,7 +917,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CIES-11779</t>
+          <t>CIES-12152</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0259 estão off-line    </t>
+          <t>P0243 - Site sem acesso externo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>P0259-PCL-PK-COL</t>
+          <t>P0243-PK-VLS-NOV</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -954,7 +954,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CIES-11780</t>
+          <t>CIES-12153</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -964,17 +964,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0213 estão off-line    </t>
+          <t>CORRETIVA SITE P0281</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>P0213-PK-VLS-ABR</t>
+          <t>P0281-PCL PK-PAN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -991,17 +991,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CIES-11781</t>
+          <t>CIES-12155</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Prioridade 2</t>
+          <t>Prioridade 1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>P0221 - LPR2</t>
+          <t>CORRETIVA SITE P0243</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>P0221-PK-VLS-RBA</t>
+          <t>P0243-PK-VLS-NOV</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CIES-11782</t>
+          <t>CIES-12157</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,17 +1038,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>P0249 - Site Offline</t>
+          <t>todas as câmeras do p0226 estão off-line</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>P0249-PK-VLS-STE</t>
+          <t>P0226-PK-VLS-JER</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CIES-11783</t>
+          <t>CIES-12160</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>P0239 - Site OFF</t>
+          <t>CORRETIVA SITE P0184</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P0239-PK-VLS-ATI</t>
+          <t>P0184-PK-VLS-GUA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CIES-11784</t>
+          <t>CIES-12162</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">P0163 - SITE OFF </t>
+          <t>CORRETIVA SITE P0215</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P0163-PK-VLS-MIM</t>
+          <t>P0215-PK-VLS-NOV</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1139,7 +1139,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CIES-11785</t>
+          <t>CIES-12163</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>P0259 - SITE OFFLINE</t>
+          <t>CORRETIVA SITE P0249</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P0259-PCL-PK-COL</t>
+          <t>P0249-PK-VLS-STE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CIES-11786</t>
+          <t>CIES-12171</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>P0241 - Site Off</t>
+          <t>CORRETIVA SITE P0259</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P0241-PK-VLS-MFL</t>
+          <t>P0259-PCL-PK-COL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1213,7 +1213,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CIES-11788</t>
+          <t>CIES-12172</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>P0213 Site Off</t>
+          <t>CORRETIVA SITE P0308</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P0213-PK-VLS-ABR</t>
+          <t>P0308-PCL-PK-DOM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CIES-11789</t>
+          <t>CIES-12174</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>P0243 - Site OFF</t>
+          <t>P0205 - CORRETIVA SITE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P0243-PK-VLS-NOV</t>
+          <t>P0205-PK-VLS-BAI</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1287,7 +1287,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CIES-11791</t>
+          <t>CIES-12179</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>P0249 - Site Off Line</t>
+          <t xml:space="preserve">todas as câmeras do p0306 estão off-line   </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P0249-PK-VLS-STE</t>
+          <t>P0306-PCL-PK-MIM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CIES-11793</t>
+          <t>CIES-12180</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1334,25 +1334,284 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>P0243 - SITE OFF</t>
+          <t xml:space="preserve">todas as câmeras do p0303 estão off-line   </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>P0303-PK-VLS-IRU</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CIES-12181</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">todas as câmeras do p0247 estão off-line   </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>P0247-PK-VLS-ADN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CIES-12183</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">todas as câmeras do p0281 estão off-line </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P0281-PCL PK-PAN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CIES-12184</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">todas as câmeras do p0303 estão off-line </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>P0203-PK-VLS-ECO</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CIES-12218</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CORRETIVA SITE P0249</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Service Desk Perkons</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>P0243-PK-VLS-NOV</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>NO PRAZO</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P0249-PK-VLS-STE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CIES-12219</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CORRETIVA SITE P0259</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Service Desk Perkons</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>P0259-PCL-PK-COL</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CIES-12229</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CORRETIVA SITE P0205</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Service Desk Perkons</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>P0205-PK-VLS-BAI</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CIES-12231</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P0215 - Todas câmeras offline. </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Service Desk Perkons</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>P0215-PK-VLS-NOV</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>

--- a/media/xlsx/corretivafora.xlsx
+++ b/media/xlsx/corretivafora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CIES-11815</t>
+          <t>CIES-12269</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prioridade 3</t>
+          <t>Prioridade 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CÂMERAS DO P0214 OBSTRUIDAS</t>
+          <t>TODAS AS CÂMERAS DO SITE ESTÃO OFFLINE - P0225</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,24 +493,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>P0214-PK-VLS-JAG</t>
+          <t>P0225-PK-VLS-ITG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>FORA DO PRAZO</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NO PRAZO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CIES-11821</t>
+          <t>CIES-12270</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,17 +520,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>todas as câmeras do p0173 estão off-line</t>
+          <t>TODAS AS CÂMERAS DO SITE ESTÃO OFFLINE - P0220</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P0173-PK-VLS-IBA</t>
+          <t>P0220-PK-VLS-IUN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,14 +540,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NO PRAZO</t>
+          <t>FORA DO PRAZO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CIES-11823</t>
+          <t>CIES-12271</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,17 +557,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>todas as câmeras do p0271 estão off-line</t>
+          <t>TODAS AS CÂMERAS DO SITE ESTÃO OFFLINE - P0207</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>P0271-PCL-PK-ARA</t>
+          <t>P0207-PK-VLS-IBA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,34 +577,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NO PRAZO</t>
+          <t>FORA DO PRAZO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CIES-11825</t>
+          <t>CIES-12272</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prioridade 1</t>
+          <t>Prioridade 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>todas as câmeras do p0271 estão off-line</t>
+          <t xml:space="preserve">CÂMERAS DO P0 233 ESTÃO OFF-LINE   </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>P0259-PCL-PK-COL</t>
+          <t>P0233-PK-VLS-LIN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,34 +614,34 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NO PRAZO</t>
+          <t>FORA DO PRAZO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CIES-11827</t>
+          <t>CIES-12273</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prioridade 1</t>
+          <t>Prioridade 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Todas as câmeras do p0234 estão off-line</t>
+          <t xml:space="preserve"> câmeras do p0183 estão off-line</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>P0234-PK-VLS-PED</t>
+          <t>P0183-PK-VLS-JOA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,34 +651,34 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NO PRAZO</t>
+          <t>FORA DO PRAZO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CIES-11828</t>
+          <t>CIES-12274</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prioridade 1</t>
+          <t>Prioridade 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Todas as câmeras do p0243 estão off-line</t>
+          <t>CÂMERAS DO P0167 ESTÃO OFFLINE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>P0243-PK-VLS-NOV</t>
+          <t>P0167-PK-VLS-DOR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -688,24 +688,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NO PRAZO</t>
+          <t>FORA DO PRAZO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CIES-11829</t>
+          <t>CIES-12590</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prioridade 1</t>
+          <t>Prioridade 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Todas as câmeras do p0229 estão off-line</t>
+          <t xml:space="preserve">CÂMERAS DO P0 296 ESTÃO OFF-LINE </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>P0229-PK-VLS-VPA</t>
+          <t>P0296-PK-VLS-RBA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NO PRAZO</t>
+          <t>FORA DO PRAZO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CIES-11834</t>
+          <t>CIES-12591</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0249 estão off-line  </t>
+          <t xml:space="preserve">todas as câmeras do p0268 estão off-line  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P0249-PK-VLS-STE</t>
+          <t>P0268-PCL-PK-COL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -769,7 +769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CIES-11835</t>
+          <t>CIES-12604</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">câmeras do p0293 estão off-line </t>
+          <t>todas as câmeras do p0292 estão off-line</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P0293-PK-VLS-CAC</t>
+          <t>P0292-PK-VLS-CAC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -806,7 +806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CIES-12146</t>
+          <t>CIES-12605</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Corretiva P0174</t>
+          <t>todas as câmeras do p0293 estão off-line</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>P0174-PK-VLS-LIN</t>
+          <t>P0293-PK-VLS-CAC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -843,17 +843,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CIES-12149</t>
+          <t>CIES-12606</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Prioridade 2</t>
+          <t>Prioridade 1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> câmeras do p0272 estão off-line  </t>
+          <t>todas as câmeras do p0163 estão off-line</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P0272-PCL-PK-ALF</t>
+          <t>P0163-PK-VLS-MIM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CIES-12151</t>
+          <t>CIES-12607</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -890,17 +890,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>P0281 - Site Offline</t>
+          <t>todas as câmeras do p0271 estão off-line</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>P0281-PCL-PK-PAN</t>
+          <t>P0271-PCL-PK-ARA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -910,14 +910,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>NO PRAZO</t>
+          <t>FORA DO PRAZO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CIES-12152</t>
+          <t>CIES-12609</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>P0243 - Site sem acesso externo</t>
+          <t>CORRETIVA SITE P0215</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>P0243-PK-VLS-NOV</t>
+          <t>P0215-PK-VLS-NOV</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -954,7 +954,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CIES-12153</t>
+          <t>CIES-12610</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -964,17 +964,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CORRETIVA SITE P0281</t>
+          <t>todas as câmeras do p0189 estão off-line</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>P0281-PCL PK-PAN</t>
+          <t>P0189-PK-VLS-BAI</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CIES-12155</t>
+          <t>CIES-12611</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CORRETIVA SITE P0243</t>
+          <t>todas as câmeras do p0192 estão off-line</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>P0243-PK-VLS-NOV</t>
+          <t>P0192-PK-VLS-MON</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CIES-12157</t>
+          <t>CIES-12612</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>todas as câmeras do p0226 estão off-line</t>
+          <t>todas as câmeras do p0234 estão off-line</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>P0226-PK-VLS-JER</t>
+          <t>P0234-PK-VLS-PED</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1058,14 +1058,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>NO PRAZO</t>
+          <t>FORA DO PRAZO</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CIES-12160</t>
+          <t>CIES-12613</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1075,17 +1075,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CORRETIVA SITE P0184</t>
+          <t>todas as câmeras do p0193 estão off-line</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P0184-PK-VLS-GUA</t>
+          <t>P0193-PK-VLS-ADN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CIES-12162</t>
+          <t>CIES-12616</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1139,7 +1139,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CIES-12163</t>
+          <t>CIES-12617</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CORRETIVA SITE P0249</t>
+          <t>CORRETIVA SITE P0215</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P0249-PK-VLS-STE</t>
+          <t>P0215-PK-VLS-NOV</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CIES-12171</t>
+          <t>CIES-12623</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CORRETIVA SITE P0259</t>
+          <t>CORRETIVA SITE P0249</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P0259-PCL-PK-COL</t>
+          <t>P0249-PK-VLS-STE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1213,7 +1213,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CIES-12172</t>
+          <t>CIES-12627</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CORRETIVA SITE P0308</t>
+          <t>CORRETIVA SITE P0259</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P0308-PCL-PK-DOM</t>
+          <t>P0259-PCL-PK-COL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CIES-12174</t>
+          <t>CIES-12628</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>P0205 - CORRETIVA SITE</t>
+          <t>CORRETIVA SITE P0291</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P0205-PK-VLS-BAI</t>
+          <t>P0291-PK-VLS-CAS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1287,7 +1287,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CIES-12179</t>
+          <t>CIES-12642</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0306 estão off-line   </t>
+          <t xml:space="preserve">todas as câmeras do p0292 estão off-line   </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P0306-PCL-PK-MIM</t>
+          <t>P0292-PK-VLS-CAC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CIES-12180</t>
+          <t>CIES-12643</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0303 estão off-line   </t>
+          <t xml:space="preserve">todas as câmeras do p0169 estão off-line   </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>P0303-PK-VLS-IRU</t>
+          <t>P0169-PK-VLS-BOM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1361,7 +1361,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CIES-12181</t>
+          <t>CIES-12647</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0247 estão off-line   </t>
+          <t>TODAS AS CÂMERAS DO SITE ESTÃO OFFLINE - P0192</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P0247-PK-VLS-ADN</t>
+          <t>P0192-PK-VLS-MON</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1398,7 +1398,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CIES-12183</t>
+          <t>CIES-12651</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0281 estão off-line </t>
+          <t>TODAS AS CÂMERAS DO SITE ESTÃO OFFLINE - P0249</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P0281-PCL PK-PAN</t>
+          <t>P0249-PK-VLS-STE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1435,7 +1435,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CIES-12184</t>
+          <t>CIES-12674</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1445,17 +1445,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">todas as câmeras do p0303 estão off-line </t>
+          <t>TODAS AS CÂMERAS DO SITE ESTÃO OFFLINE - P0248</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+          <t>Service Desk Perkons</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P0203-PK-VLS-ECO</t>
+          <t>P0248-PK-VLS-BAR</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1472,7 +1472,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CIES-12218</t>
+          <t>CIES-12675</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CORRETIVA SITE P0249</t>
+          <t>TODAS AS CÂMERAS DO SITE ESTÃO OFFLINE - P0176</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P0249-PK-VLS-STE</t>
+          <t>P0176-PK-VLS-CBA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CIES-12219</t>
+          <t>CIES-12715</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1519,17 +1519,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CORRETIVA SITE P0259</t>
+          <t xml:space="preserve">todas as câmeras do p0292 estão off-line   </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P0259-PCL-PK-COL</t>
+          <t>P0292-PK-VLS-CAC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CIES-12229</t>
+          <t>CIES-12716</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1556,17 +1556,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CORRETIVA SITE P0205</t>
+          <t xml:space="preserve">todas as câmeras do p0099 estão off-line   </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Service Desk Perkons</t>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>P0205-PK-VLS-BAI</t>
+          <t>P0099-PCL PK-MIM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1583,7 +1583,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CIES-12231</t>
+          <t>CIES-12717</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1593,25 +1593,136 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">P0215 - Todas câmeras offline. </t>
+          <t xml:space="preserve">todas as câmeras do p0185 estão off-line   </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>P0185-PK-VLS-MIM</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CIES-12718</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">todas as câmeras do p0168 estão off-line   </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>P0168-PK-VLS-BOM</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CIES-12719</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">todas as câmeras do p0205 estão off-line   </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CRISTIANA NEVES BATISTA MOREIRA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>P0205-PK-VLS-BAI</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CIES-12734</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Prioridade 1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>TODAS AS CÂMERAS DO SITE ESTÃO OFFLINE - P0259</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Service Desk Perkons</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>P0215-PK-VLS-NOV</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>NO PRAZO</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>P0259-PCL-PK-COL</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO PRAZO</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
